--- a/data/trans_camb/P17G_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R2-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.1539621767451332</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.537038801951619</v>
+        <v>0.5370388019516188</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5285823142156097</v>
+        <v>-0.4824714451375792</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8279847651485315</v>
+        <v>-0.7899595719557614</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7232168292546995</v>
+        <v>-0.7676963951847254</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.117703356142253</v>
+        <v>-1.19566773651346</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.309705255835981</v>
+        <v>-1.396202145516634</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.927810342421256</v>
+        <v>-0.9311265778955512</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.5030113770222129</v>
+        <v>-0.4246753997681734</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6334256015821628</v>
+        <v>-0.746880268193902</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.4640706602213711</v>
+        <v>-0.5364560774873214</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.495860414493582</v>
+        <v>2.379985445862941</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.758060453951431</v>
+        <v>1.80543049220549</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.592868621720534</v>
+        <v>3.357179442595706</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.400260485341843</v>
+        <v>1.210003550752753</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.044340272798933</v>
+        <v>1.071849716855287</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.709784066816629</v>
+        <v>2.480158666219142</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.502309409446744</v>
+        <v>1.592980119674287</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.101809249857917</v>
+        <v>1.055762817197099</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.277547838182866</v>
+        <v>2.074824126121698</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2154107385601952</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7513788607664477</v>
+        <v>0.7513788607664474</v>
       </c>
     </row>
     <row r="8">
@@ -779,7 +779,9 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr"/>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
@@ -790,13 +792,13 @@
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5264470163810712</v>
+        <v>-0.4953862608520629</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6273948424230954</v>
+        <v>-0.6747756031480618</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6341776030454277</v>
+        <v>-0.6618310586565153</v>
       </c>
     </row>
     <row r="9">
@@ -811,19 +813,19 @@
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>4.030009030932294</v>
+        <v>4.830396027057214</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>10.68215012764948</v>
+        <v>7.473304843874955</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.362837535586142</v>
+        <v>5.269544815840834</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.783693822324397</v>
+        <v>3.676215429728831</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>7.393454133496507</v>
+        <v>5.574689123087698</v>
       </c>
     </row>
     <row r="10">
@@ -862,7 +864,7 @@
         <v>0.8769503100699192</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.9153920228029225</v>
+        <v>0.9153920228029229</v>
       </c>
     </row>
     <row r="11">
@@ -873,31 +875,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.375577725285293</v>
+        <v>-1.334755417741847</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3854382861881715</v>
+        <v>-0.3035145973804906</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7847833094342012</v>
+        <v>-0.7557726537502034</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.870815218139626</v>
+        <v>-2.037421486264454</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.264465823741382</v>
+        <v>-0.9080200615813822</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.8855260578378996</v>
+        <v>-0.9090174791268822</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.209456161221807</v>
+        <v>-1.263000315895886</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.1154062243806641</v>
+        <v>-0.2263110092800925</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.2475467796075579</v>
+        <v>-0.1985503077395309</v>
       </c>
     </row>
     <row r="12">
@@ -908,31 +910,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7435237723318069</v>
+        <v>0.6879095114419174</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.709009300255226</v>
+        <v>2.67624375182269</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.782012507083059</v>
+        <v>3.002515303747043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.149602970424777</v>
+        <v>0.966485253663483</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.160607236877875</v>
+        <v>2.65810022794723</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.173043881252735</v>
+        <v>3.072883529747199</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5389742888102541</v>
+        <v>0.5455147459062847</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.14213245620103</v>
+        <v>1.950839394629676</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.665068642329621</v>
+        <v>2.297630790323125</v>
       </c>
     </row>
     <row r="13">
@@ -958,7 +960,7 @@
         <v>0.3523158944309021</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5646169349803779</v>
+        <v>0.5646169349803777</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2583570888999675</v>
@@ -967,7 +969,7 @@
         <v>0.6313398070290465</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6590150164679773</v>
+        <v>0.6590150164679776</v>
       </c>
     </row>
     <row r="14">
@@ -978,31 +980,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8119829349767967</v>
+        <v>-0.8095821276085348</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2899004850049594</v>
+        <v>-0.3263751889432845</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.658692901023342</v>
+        <v>-0.6345789659481368</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.7357409188027729</v>
+        <v>-0.7697949299413331</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.492422267685067</v>
+        <v>-0.4434891010466931</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4507402152045313</v>
+        <v>-0.4027665623853526</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6502736601194713</v>
+        <v>-0.6519282212137594</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09223637682001234</v>
+        <v>-0.1375379740636333</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1950641644402538</v>
+        <v>-0.1745335114935486</v>
       </c>
     </row>
     <row r="15">
@@ -1013,31 +1015,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.576342416193956</v>
+        <v>1.484256460120127</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.534276535127271</v>
+        <v>4.924220646438473</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.297556922347241</v>
+        <v>4.810080256038225</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.379989392385646</v>
+        <v>1.006755640412304</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.139611104616574</v>
+        <v>2.819661879067172</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.8078557591942</v>
+        <v>2.949455706390836</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6573053672368847</v>
+        <v>0.6052607015030935</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.214487998813512</v>
+        <v>1.928034942088523</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.59622047829546</v>
+        <v>2.320655324267889</v>
       </c>
     </row>
     <row r="16">
@@ -1067,7 +1069,7 @@
         <v>0.1648671835882742</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7765716527126161</v>
+        <v>0.7765716527126164</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.1777713684750095</v>
@@ -1076,7 +1078,7 @@
         <v>0.09323213447320344</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.8172526844786577</v>
+        <v>0.8172526844786584</v>
       </c>
     </row>
     <row r="17">
@@ -1087,31 +1089,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.749744101667713</v>
+        <v>-1.588046758072093</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.204906682377049</v>
+        <v>-1.225864408653649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.5630571766786377</v>
+        <v>-0.6390074660053369</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.356448187743216</v>
+        <v>-1.503848644999666</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.158616703192839</v>
+        <v>-1.411560931096802</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.6200449724830838</v>
+        <v>-0.7490271632991046</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.139307923532612</v>
+        <v>-1.284723548755335</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.9275509566524348</v>
+        <v>-0.8870752969389516</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.2600676832051159</v>
+        <v>-0.2732391937622856</v>
       </c>
     </row>
     <row r="18">
@@ -1122,31 +1124,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6821875734077453</v>
+        <v>0.6781322458056461</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.373076740443395</v>
+        <v>1.331019697045864</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.604655694986497</v>
+        <v>2.577785930370939</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.543229057573664</v>
+        <v>1.44728530038331</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.660593955829758</v>
+        <v>1.541176120213728</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.211365421351158</v>
+        <v>2.103693878348602</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8009613371694329</v>
+        <v>0.7145904511043464</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.085699664809336</v>
+        <v>1.063088809039265</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.927696604988925</v>
+        <v>1.914266931536081</v>
       </c>
     </row>
     <row r="19">
@@ -1172,7 +1174,7 @@
         <v>0.1018171781541965</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4795880695772543</v>
+        <v>0.4795880695772545</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1211170346207135</v>
@@ -1181,7 +1183,7 @@
         <v>0.06351978811673144</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5568006959106429</v>
+        <v>0.5568006959106433</v>
       </c>
     </row>
     <row r="20">
@@ -1192,31 +1194,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7823999523699589</v>
+        <v>-0.8014698577684888</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6259217305650568</v>
+        <v>-0.6809401293917006</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4015199448705382</v>
+        <v>-0.4386028578415946</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6435346762213109</v>
+        <v>-0.644120851834631</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5240747642774469</v>
+        <v>-0.5943873038804874</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3434243838077097</v>
+        <v>-0.3540796357472677</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5740532992281416</v>
+        <v>-0.6026395763741417</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4785944904212817</v>
+        <v>-0.4711548378142346</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.188836789432278</v>
+        <v>-0.1973006837487248</v>
       </c>
     </row>
     <row r="21">
@@ -1227,31 +1229,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.248452929879283</v>
+        <v>0.98225091641101</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.320415019395727</v>
+        <v>2.039631699658401</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.675650490800736</v>
+        <v>3.533485498337835</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.844755504819422</v>
+        <v>1.578220714838586</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.038789211676145</v>
+        <v>1.578092419971277</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.441013303618289</v>
+        <v>2.302890323210268</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8536955024930184</v>
+        <v>0.7965965871921896</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.104544455257866</v>
+        <v>1.164338377012439</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.895530978254158</v>
+        <v>1.893767290431483</v>
       </c>
     </row>
     <row r="22">
@@ -1272,7 +1274,7 @@
         <v>1.041628107490267</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6162339688320312</v>
+        <v>0.6162339688320304</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.478622390743457</v>
@@ -1281,7 +1283,7 @@
         <v>-0.1828153707148193</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.8896323302669759</v>
+        <v>0.8896323302669755</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.7837581729104257</v>
@@ -1301,31 +1303,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.751271174512433</v>
+        <v>-1.503537172923298</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6464015473474586</v>
+        <v>-0.4077368931253432</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9318839442414971</v>
+        <v>-0.8834972762297669</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.875316579745654</v>
+        <v>-3.020643805481031</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.850826328639399</v>
+        <v>-1.896587124889359</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.7797638071463181</v>
+        <v>-0.7965653510360511</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.848392790806847</v>
+        <v>-1.856665011675867</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8490725433689614</v>
+        <v>-0.6671643876036354</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.3745378849484184</v>
+        <v>-0.5402627227811677</v>
       </c>
     </row>
     <row r="24">
@@ -1336,31 +1338,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.25578478473302</v>
+        <v>1.512036983055648</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.787801338833219</v>
+        <v>2.956087743169634</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.132034602602196</v>
+        <v>2.227671212720771</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.2217519895302624</v>
+        <v>-0.3035661511077919</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.326003453513831</v>
+        <v>1.337410507898044</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.332571716399418</v>
+        <v>2.254060277037328</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1561343798331586</v>
+        <v>0.2328319207542252</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.491403613130213</v>
+        <v>1.750789234131684</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.914131660347334</v>
+        <v>1.877021135995955</v>
       </c>
     </row>
     <row r="25">
@@ -1377,7 +1379,7 @@
         <v>0.7054264100234543</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.417334856117779</v>
+        <v>0.4173348561177785</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.7434504654326527</v>
@@ -1386,7 +1388,7 @@
         <v>-0.09191946050393381</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4473066106271835</v>
+        <v>0.4473066106271832</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4524386832667295</v>
@@ -1406,31 +1408,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7605122546960491</v>
+        <v>-0.7260186784748669</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3969988276418544</v>
+        <v>-0.2924036647449324</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4812961386051262</v>
+        <v>-0.4414057118476165</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.941410662970469</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6464759728726158</v>
+        <v>-0.668288782292378</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2782107960167489</v>
+        <v>-0.3096061240341898</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.7605652299035255</v>
+        <v>-0.7634351042253044</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3644692727594737</v>
+        <v>-0.3088840868111398</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1811292054838973</v>
+        <v>-0.225678574715613</v>
       </c>
     </row>
     <row r="27">
@@ -1441,31 +1443,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.799411823541919</v>
+        <v>2.316292922354467</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.542063906914165</v>
+        <v>3.81810077015949</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.83372232642987</v>
+        <v>2.907761012338985</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.0797817763323041</v>
+        <v>0.02714329462996271</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.154038252672086</v>
+        <v>1.237075718893435</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.107089179934893</v>
+        <v>1.884728237080479</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1991676465545241</v>
+        <v>0.2703568932959241</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.2318123582543</v>
+        <v>1.592877213750273</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.709804750622397</v>
+        <v>1.714128543847334</v>
       </c>
     </row>
     <row r="28">
@@ -1504,7 +1506,7 @@
         <v>-0.2542968131425544</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-0.7769917439753086</v>
+        <v>-0.7769917439753089</v>
       </c>
     </row>
     <row r="29">
@@ -1515,31 +1517,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.602594006899259</v>
+        <v>-2.34824379924636</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.056333450532748</v>
+        <v>-2.70991390662755</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.55489911054654</v>
+        <v>-3.588058712520444</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.681480470873022</v>
+        <v>-3.557906967925047</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.315326159804711</v>
+        <v>-2.274699575529366</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.412151291631468</v>
+        <v>-2.51615721583984</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.685848173878641</v>
+        <v>-2.429364584576492</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.788205578067868</v>
+        <v>-1.697557914255494</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.12858150706951</v>
+        <v>-2.188809465665788</v>
       </c>
     </row>
     <row r="30">
@@ -1550,31 +1552,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.949505649246383</v>
+        <v>2.257140632355657</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.594544692868922</v>
+        <v>1.568137138403148</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3743324776852409</v>
+        <v>0.2991667470302756</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1162411771171141</v>
+        <v>0.3593386316870807</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.090471875961665</v>
+        <v>2.110797837527939</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.570449021804387</v>
+        <v>1.385213166680264</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4095806663389104</v>
+        <v>0.4730575624993798</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.134311017204653</v>
+        <v>1.331865883045149</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.5233020259307011</v>
+        <v>0.419159884140587</v>
       </c>
     </row>
     <row r="31">
@@ -1609,7 +1611,7 @@
         <v>-0.09845160572675064</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.3008141702032069</v>
+        <v>-0.3008141702032071</v>
       </c>
     </row>
     <row r="32">
@@ -1620,31 +1622,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7176633994162809</v>
+        <v>-0.6702127177629091</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7318953552572335</v>
+        <v>-0.6632066478123708</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8298814814096057</v>
+        <v>-0.8276596564485197</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.9320973133772376</v>
+        <v>-0.9131187653200721</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6705207240142804</v>
+        <v>-0.6591497066614019</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6095549067230334</v>
+        <v>-0.6098491682658178</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.7425889900671465</v>
+        <v>-0.7134623119882404</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5379102342197652</v>
+        <v>-0.5308183719671563</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5940195167229593</v>
+        <v>-0.6077907651485284</v>
       </c>
     </row>
     <row r="33">
@@ -1655,31 +1657,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.304945613071391</v>
+        <v>1.75257232859667</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.089798828583301</v>
+        <v>1.234144618959957</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4024498694876751</v>
+        <v>0.3363253792356941</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3445295502105291</v>
+        <v>0.8706034500126277</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.635884231505647</v>
+        <v>1.788346397204988</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.20484686130329</v>
+        <v>1.277159033086706</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3141935961418255</v>
+        <v>0.3124544361915562</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6852671673079915</v>
+        <v>0.7225701927478602</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3464396969296436</v>
+        <v>0.2543843797161059</v>
       </c>
     </row>
     <row r="34">
@@ -1729,31 +1731,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.374476035922784</v>
+        <v>-2.563304398213587</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.12818778017994</v>
+        <v>-3.242069431824975</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.774333014549899</v>
+        <v>-1.776302375983449</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.262161308932084</v>
+        <v>-1.433052095049321</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.7795061042478202</v>
+        <v>-1.064119169144985</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.792216522034785</v>
+        <v>-1.605083630164913</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.286918384003176</v>
+        <v>-1.160680465857944</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.356394341602801</v>
+        <v>-1.264374486480675</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.098876809421707</v>
+        <v>-1.015200278177499</v>
       </c>
     </row>
     <row r="36">
@@ -1764,31 +1766,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.466807378187069</v>
+        <v>2.479350333326545</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.8732676723823953</v>
+        <v>0.7569185982208665</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.382792063846344</v>
+        <v>2.28551653607523</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.515168556535413</v>
+        <v>2.50600673710376</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.535131889932129</v>
+        <v>3.247441569104622</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.537397331365921</v>
+        <v>1.596610775303074</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.81152532903086</v>
+        <v>1.791308231732454</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.754194369483493</v>
+        <v>1.616143050932589</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.436209582775626</v>
+        <v>1.481721235855185</v>
       </c>
     </row>
     <row r="37">
@@ -1834,31 +1836,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8194743719987017</v>
+        <v>-0.7949386484184225</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8850013955753053</v>
+        <v>-0.9116154084962838</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5256225668142821</v>
+        <v>-0.5638763356465317</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.7210111752159526</v>
+        <v>-0.6643929793477815</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4993259185724443</v>
+        <v>-0.5872530369150825</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.6534486045864539</v>
+        <v>-0.6792192483928088</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5448143520706027</v>
+        <v>-0.4880946190733711</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5609316958254762</v>
+        <v>-0.5279875152817711</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4380232334870406</v>
+        <v>-0.4123075277681786</v>
       </c>
     </row>
     <row r="39">
@@ -1869,31 +1871,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.423892267332779</v>
+        <v>2.773860259014833</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.504272700814093</v>
+        <v>0.953483926024456</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.272331876704829</v>
+        <v>2.139957131816046</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>4.938293466685333</v>
+        <v>4.250702700045289</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>5.695202586409217</v>
+        <v>5.056987171119034</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.101867465985423</v>
+        <v>3.401527440750574</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.539958494441168</v>
+        <v>1.692967301255067</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.582613967076814</v>
+        <v>1.625690355428215</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.367591934852913</v>
+        <v>1.410021061428931</v>
       </c>
     </row>
     <row r="40">
@@ -1914,7 +1916,7 @@
         <v>0.53948451215113</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.3920901137416929</v>
+        <v>-0.3920901137416928</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.641876764443536</v>
@@ -1932,7 +1934,7 @@
         <v>0.1692334984213999</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.4793589539542848</v>
+        <v>0.4793589539542845</v>
       </c>
     </row>
     <row r="41">
@@ -1943,31 +1945,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.3017056919914</v>
+        <v>-4.018798559935178</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.37738626806352</v>
+        <v>-2.204976324793515</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.903602700384037</v>
+        <v>-3.146960192588852</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.300680872833684</v>
+        <v>-1.180492008947843</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.860980333688028</v>
+        <v>-1.81459274216862</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.6803106822420553</v>
+        <v>-0.7480254039373296</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.361427533353233</v>
+        <v>-1.39014319862379</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.194110641660231</v>
+        <v>-1.250016167313884</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.8639164670410546</v>
+        <v>-1.164968652056804</v>
       </c>
     </row>
     <row r="42">
@@ -1978,31 +1980,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.2778413679328144</v>
+        <v>0.2344847395067456</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.885166556841396</v>
+        <v>2.962348715535524</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1.263670811169081</v>
+        <v>1.346526117120834</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.467636206971375</v>
+        <v>2.342977854652395</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.527459181988729</v>
+        <v>1.570168588631137</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.430702408943562</v>
+        <v>2.481746363268569</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.247917240217959</v>
+        <v>1.364248120197227</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.575755985339214</v>
+        <v>1.469973564072069</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>1.624696865851568</v>
+        <v>1.530030649160342</v>
       </c>
     </row>
     <row r="43">
@@ -2019,7 +2021,7 @@
         <v>0.3431971640322961</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.249431099596707</v>
+        <v>-0.2494310995967069</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.6065436233161446</v>
@@ -2028,7 +2030,7 @@
         <v>-0.07013242722562386</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.9904142901547733</v>
+        <v>0.990414290154773</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.05553890048784711</v>
@@ -2037,7 +2039,7 @@
         <v>0.1346846924940999</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3814984261972938</v>
+        <v>0.3814984261972936</v>
       </c>
     </row>
     <row r="44">
@@ -2049,24 +2051,26 @@
       </c>
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="6" t="inlineStr"/>
+        <v>-0.8218834039758826</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.9426817547880537</v>
+      </c>
       <c r="F44" s="6" t="n">
-        <v>-0.8336146458596241</v>
+        <v>-0.7231632450665267</v>
       </c>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="n">
-        <v>-0.4041179067937951</v>
+        <v>-0.5154000711106805</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.7469183382609634</v>
+        <v>-0.7372506490900775</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6355684549488705</v>
+        <v>-0.6903787046725756</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.44518684850388</v>
+        <v>-0.5204642893086366</v>
       </c>
     </row>
     <row r="45">
@@ -2078,22 +2082,24 @@
       </c>
       <c r="C45" s="6" t="inlineStr"/>
       <c r="D45" s="6" t="n">
-        <v>6.485420759046563</v>
+        <v>7.523351734533854</v>
       </c>
       <c r="E45" s="6" t="inlineStr"/>
-      <c r="F45" s="6" t="inlineStr"/>
+      <c r="F45" s="6" t="n">
+        <v>8.423290043925153</v>
+      </c>
       <c r="G45" s="6" t="inlineStr"/>
       <c r="H45" s="6" t="n">
-        <v>6.43369139854246</v>
+        <v>7.74857007197156</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>2.760557616762646</v>
+        <v>3.076963488144008</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.981213166385622</v>
+        <v>2.615085373150854</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.916578171843591</v>
+        <v>2.754035833821418</v>
       </c>
     </row>
     <row r="46">
@@ -2114,7 +2120,7 @@
         <v>0.3982521361970864</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.3926271205113406</v>
+        <v>0.3926271205113402</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.3964928428116682</v>
@@ -2143,31 +2149,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.7737416022351961</v>
+        <v>-0.6792272376577004</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.2330289353823058</v>
+        <v>-0.1926005017304668</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.2115386967156153</v>
+        <v>-0.2573806427215238</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.9961847369896406</v>
+        <v>-0.9931257676601437</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.4975906016425987</v>
+        <v>-0.4312333931446371</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.008096077717649589</v>
+        <v>-0.006137262659924246</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.6663642477661134</v>
+        <v>-0.6925815208537184</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.151247890206</v>
+        <v>-0.187652186816691</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.0716137994817035</v>
+        <v>0.07465986652581069</v>
       </c>
     </row>
     <row r="48">
@@ -2178,31 +2184,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.4711360448927188</v>
+        <v>0.4765409648263563</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.030236481777353</v>
+        <v>1.0505113472654</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.080563065862659</v>
+        <v>1.051837416349668</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.2133608428175967</v>
+        <v>0.2391857359220401</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.8610736860695128</v>
+        <v>0.8534346721525998</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.2731736558929</v>
+        <v>1.279444780541369</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.1976133149576811</v>
+        <v>0.1540660020467588</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.7497484232355525</v>
+        <v>0.7611323436745377</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.9346806692181244</v>
+        <v>1.012501709958984</v>
       </c>
     </row>
     <row r="49">
@@ -2219,7 +2225,7 @@
         <v>0.2802551027262686</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.2762967075148857</v>
+        <v>0.2762967075148854</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.2428172107935559</v>
@@ -2248,31 +2254,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4442576733854888</v>
+        <v>-0.3982235552603673</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1509090112465014</v>
+        <v>-0.1333578418830591</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1319981605950948</v>
+        <v>-0.1571654327752524</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.5003658004446133</v>
+        <v>-0.5174448536136526</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2505192316033547</v>
+        <v>-0.2309146868089786</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.01566029252796551</v>
+        <v>-0.005904364715229313</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3770261360399242</v>
+        <v>-0.395764083515208</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.09161733400102384</v>
+        <v>-0.1042321431042596</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.03963311172400266</v>
+        <v>0.03641003664975097</v>
       </c>
     </row>
     <row r="51">
@@ -2283,31 +2289,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4184790240223427</v>
+        <v>0.4452049501128256</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.9094708918648786</v>
+        <v>0.8706280597864372</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.9893997992838162</v>
+        <v>0.9677739026268006</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1739342841906837</v>
+        <v>0.1870974668670937</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6383134096225428</v>
+        <v>0.6434021981584629</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9596803583947831</v>
+        <v>0.9669702931393304</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.154846828012893</v>
+        <v>0.1144250560853698</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.5555012355263061</v>
+        <v>0.5863294661593417</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.7085946133680481</v>
+        <v>0.7969857315379602</v>
       </c>
     </row>
     <row r="52">
